--- a/dat.xlsx
+++ b/dat.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
@@ -457,7 +457,54 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="81.5" customHeight="1"/>
+    <row r="3" ht="81.5" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>https://www.artstation.com/jobs/Jp7Y</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ArtStation - Unreal Engineer (m/f/d) at realworld one</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>View all realworld one jobs</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Implement application logic and software modules in a self-organizing, interdisciplinary team  
+Write clean, well-tested, performant code  
+Write and maintain technical design and software system documentation  
+Analyze and optimize systems as required  
+Identify opportunities for improving our general or application workflows, and implement these changes  
+Create and improve new VR and AR interaction systems  
+Grasp the complexity of project planning and implementation, including scope of work, time estimation and resource allocation  
+Inspire and motivate your team to generate new ideas and solutions 
+Proficiency in Unreal Engine 4 development using C++  
+A minimum of 3 years of game programming experience  
+Experience working on multiplayer games (ideally on an MMO) is a huge plus  
+Ability to design gameplay systems and communicate these nuances to a team  
+Competence in writing solid, reliable and efficient code  
+Self-starting and self-reliant personality  
+AR or VR experience as a developer or user  
+BS (or higher) in Computer Science or a similar discipline (i.e. Physics, Math, EE, etc.)  
+Strong verbal and written communication skills in English; German skills are a plus 
+Working remotely is an option 
+Relocation assistance is offered 
+An opportunity to work for a market-leading, hypergrowth tech company with a broad international customer base that is using VR and AR to transform the way they work, learn and research 
+The experience of creating and implementing highly-valuable and innovative technology, while contributing to the long-term growth of a successful tech company 
+Profit from an open and modern work environment with flexible working hours 
+Be a part of a diverse international team with highly-qualified and dedicated colleagues representing over 30 nationalities 
+Bring in your own ideas and actively participate in shaping our company 
+Live in one of the regions in Europe with the highest quality of life, close to the Black Forest, the Swiss Alps, as well as the gourmet region of France 
+Receive a competitive salary, relocation support (if needed) and additional benefits such as team events, company lunches, office snacks, gourmet coffee and a great office location in the heart of Freiburg 
+</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
